--- a/data/combined.xlsx
+++ b/data/combined.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="881">
   <si>
     <t xml:space="preserve">method </t>
   </si>
@@ -2663,10 +2663,19 @@
     <t>Mead vs. PhraseMead</t>
   </si>
   <si>
-    <t xml:space="preserve">OpinosisPhrase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opinosis </t>
+    <t>Opinosis</t>
+  </si>
+  <si>
+    <t>OpinosisPhrase</t>
+  </si>
+  <si>
+    <t>OpinosisPhraseCluster</t>
+  </si>
+  <si>
+    <t>Opinosis_WithoutPeroid</t>
+  </si>
+  <si>
+    <t>OpinosisPhrase_WithoutPeroid</t>
   </si>
 </sst>
 </file>
@@ -2734,13 +2743,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3076,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,80 +3521,165 @@
       <c r="G14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.386313333333</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.16929125</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.21324083333300001</v>
+      </c>
+      <c r="E18" s="5">
+        <v>7.9830416666700002E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.6079583333299997E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4.6938333333299997E-2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.15545875000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3.4222500000000003E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4.0840000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.386313333333</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.16929125</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.21324083333300001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7.9830416666700002E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3.6079583333299997E-2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4.6938333333299997E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.15545875000000001</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3.4222500000000003E-2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4.0840000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="B19" s="1">
         <v>0.272778333333</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C19" s="1">
         <v>0.21085583333300001</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D19" s="1">
         <v>0.21552958333300001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E19" s="1">
         <v>5.9958749999999998E-2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F19" s="1">
         <v>4.89804166667E-2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G19" s="1">
         <v>5.0001666666700001E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H19" s="1">
         <v>8.8406666666699996E-2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I19" s="1">
         <v>6.0251666666700003E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J19" s="5">
         <v>5.2795000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.26695999999999998</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.26297833333300003</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.23803583333299999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.0581250000000003E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5.9802500000000001E-2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5.5917916666699999E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6.9431666666700004E-2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>7.0927916666699994E-2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5.0907083333299998E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/combined.xlsx
+++ b/data/combined.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Word" sheetId="14" r:id="rId1"/>
@@ -11031,7 +11031,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A40:XFD44">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44416,7 +44416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -46912,7 +46912,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B28:J44">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46924,8 +46924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47094,67 +47094,67 @@
         <v>4.5364166666699998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.34093333333300002</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.26928208333300002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.26494875000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.121734583333</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.10226125</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>9.9279583333300003E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.12582083333300001</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>9.3974166666699999E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>7.1522500000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.360063333333</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.27888291666699999</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.27666499999999999</v>
       </c>
       <c r="E7" s="2">
         <v>0.130415</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.105507083333</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>0.1038925</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.142139583333</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>9.8862500000000006E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>7.7787499999999996E-2</v>
       </c>
     </row>
@@ -49199,7 +49199,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B28:J32">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49212,7 +49212,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54678,7 +54678,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A28:XFD32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
